--- a/maps/level1.xlsx
+++ b/maps/level1.xlsx
@@ -4,80 +4,65 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14880" windowHeight="5640"/>
+    <workbookView windowWidth="14880" windowHeight="7520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>只有蓝框内的更改会对地图生效</t>
+  </si>
+  <si>
+    <t>0-空</t>
+  </si>
+  <si>
+    <t>1-可破坏砖墙</t>
+  </si>
+  <si>
+    <t>2-不可破坏石墙</t>
+  </si>
+  <si>
+    <t>3-可以藏身的草丛</t>
+  </si>
+  <si>
+    <t>4-基地（所有基地被摧毁即为失败）</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="18"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="16"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,21 +76,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,7 +91,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,11 +112,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,8 +157,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,7 +167,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,6 +180,37 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -196,31 +227,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,151 +377,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,50 +421,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,22 +455,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,6 +503,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -495,10 +526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -507,137 +538,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,6 +677,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1003,10 +1046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:AJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.65" customHeight="1"/>
@@ -1042,7 +1085,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customHeight="1" spans="1:26">
+    <row r="2" customHeight="1" spans="1:36">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
         <v>0</v>
@@ -1117,8 +1160,19 @@
         <v>0</v>
       </c>
       <c r="Z2" s="1"/>
+      <c r="AB2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
     </row>
-    <row r="3" customHeight="1" spans="1:26">
+    <row r="3" customHeight="1" spans="1:33">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
         <v>0</v>
@@ -1193,8 +1247,16 @@
         <v>0</v>
       </c>
       <c r="Z3" s="1"/>
+      <c r="AB3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
     </row>
-    <row r="4" customHeight="1" spans="1:26">
+    <row r="4" customHeight="1" spans="1:33">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>0</v>
@@ -1269,8 +1331,16 @@
         <v>0</v>
       </c>
       <c r="Z4" s="1"/>
+      <c r="AB4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
     </row>
-    <row r="5" customHeight="1" spans="1:26">
+    <row r="5" customHeight="1" spans="1:33">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>0</v>
@@ -1345,8 +1415,16 @@
         <v>0</v>
       </c>
       <c r="Z5" s="1"/>
+      <c r="AB5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
     </row>
-    <row r="6" customHeight="1" spans="1:26">
+    <row r="6" customHeight="1" spans="1:33">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>1</v>
@@ -1421,8 +1499,16 @@
         <v>0</v>
       </c>
       <c r="Z6" s="1"/>
+      <c r="AB6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
     </row>
-    <row r="7" customHeight="1" spans="1:26">
+    <row r="7" customHeight="1" spans="1:33">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>1</v>
@@ -1497,6 +1583,14 @@
         <v>1</v>
       </c>
       <c r="Z7" s="1"/>
+      <c r="AB7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:26">
       <c r="A8" s="1"/>
@@ -2135,6 +2229,14 @@
       <c r="Z16" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="AB2:AJ2"/>
+    <mergeCell ref="AB3:AG3"/>
+    <mergeCell ref="AB4:AG4"/>
+    <mergeCell ref="AB5:AG5"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="AB7:AG7"/>
+  </mergeCells>
   <conditionalFormatting sqref="B2:Y15">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>0</formula>
@@ -2156,38 +2258,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
-</worksheet>
 </file>
--- a/maps/level1.xlsx
+++ b/maps/level1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14880" windowHeight="7520"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,8 +40,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -62,14 +62,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,43 +84,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,7 +114,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -165,9 +128,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,6 +160,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,6 +190,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -227,31 +227,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,151 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,16 +436,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -455,7 +455,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,22 +473,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,6 +485,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,10 +526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,137 +538,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -682,9 +682,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1049,7 +1046,7 @@
   <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.65" customHeight="1"/>
@@ -1250,11 +1247,11 @@
       <c r="AB3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
     </row>
     <row r="4" customHeight="1" spans="1:33">
       <c r="A4" s="1"/>
@@ -1334,11 +1331,11 @@
       <c r="AB4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
     </row>
     <row r="5" customHeight="1" spans="1:33">
       <c r="A5" s="1"/>
@@ -1418,11 +1415,11 @@
       <c r="AB5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
     </row>
     <row r="6" customHeight="1" spans="1:33">
       <c r="A6" s="1"/>
@@ -1502,11 +1499,11 @@
       <c r="AB6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
     </row>
     <row r="7" customHeight="1" spans="1:33">
       <c r="A7" s="1"/>
@@ -1544,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
@@ -1586,11 +1583,11 @@
       <c r="AB7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
     </row>
     <row r="8" customHeight="1" spans="1:26">
       <c r="A8" s="1"/>
@@ -1622,16 +1619,16 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8" s="2">
         <v>3</v>
@@ -1698,16 +1695,16 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O9" s="2">
         <v>3</v>
@@ -1780,10 +1777,10 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>3</v>
@@ -1856,10 +1853,10 @@
         <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>1</v>
@@ -1868,10 +1865,10 @@
         <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="2">
         <v>2</v>
@@ -1941,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
